--- a/CurrentProjects/ResearchProject.xlsx
+++ b/CurrentProjects/ResearchProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HSBR/Documents/GitHub/elsinore.github.io/CurrentProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D7075D-4D15-3640-9F9D-0C46CB4532C6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFB74A2-3EFC-5243-90B6-5A39B5932ECE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" xr2:uid="{1F31C388-5567-408A-AB3A-0257E2CD16A0}"/>
   </bookViews>
@@ -75,8 +75,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="d"/>
-    <numFmt numFmtId="167" formatCode="ddd\,\ mmm\,\ dd\,\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="[$-409]mmm\ dd\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="ddd\,\ mmm\,\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-409]mmm\ dd\,\ yyyy;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -692,40 +692,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -786,7 +786,7 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -854,6 +854,33 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -902,107 +929,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="3">
     <dxf>
       <border>
         <left style="thin">
           <color rgb="FFFF0000"/>
         </left>
         <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="dashDot">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="dashDot">
           <color rgb="FFFF0000"/>
         </right>
         <vertical/>
@@ -1355,9 +1293,7 @@
   <dimension ref="A1:CA44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="BJ21" sqref="BJ21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1463,106 +1399,106 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="107">
+      <c r="I2" s="91">
         <f ca="1">I3</f>
         <v>43185</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="107">
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="91">
         <f t="shared" ref="P2" ca="1" si="0">P3</f>
         <v>43192</v>
       </c>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="107">
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="91">
         <f t="shared" ref="W2" ca="1" si="1">W3</f>
         <v>43199</v>
       </c>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="107">
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="91">
         <f t="shared" ref="AD2" ca="1" si="2">AD3</f>
         <v>43206</v>
       </c>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="109"/>
-      <c r="AK2" s="107">
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="91">
         <f t="shared" ref="AK2" ca="1" si="3">AK3</f>
         <v>43213</v>
       </c>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
-      <c r="AN2" s="108"/>
-      <c r="AO2" s="108"/>
-      <c r="AP2" s="108"/>
-      <c r="AQ2" s="109"/>
-      <c r="AR2" s="107">
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="91">
         <f t="shared" ref="AR2" ca="1" si="4">AR3</f>
         <v>43220</v>
       </c>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="108"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="108"/>
-      <c r="AW2" s="108"/>
-      <c r="AX2" s="109"/>
-      <c r="AY2" s="107">
+      <c r="AS2" s="92"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="91">
         <f t="shared" ref="AY2" ca="1" si="5">AY3</f>
         <v>43227</v>
       </c>
-      <c r="AZ2" s="108"/>
-      <c r="BA2" s="108"/>
-      <c r="BB2" s="108"/>
-      <c r="BC2" s="108"/>
-      <c r="BD2" s="108"/>
-      <c r="BE2" s="109"/>
-      <c r="BF2" s="107">
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="92"/>
+      <c r="BB2" s="92"/>
+      <c r="BC2" s="92"/>
+      <c r="BD2" s="92"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="91">
         <f t="shared" ref="BF2" ca="1" si="6">BF3</f>
         <v>43234</v>
       </c>
-      <c r="BG2" s="108"/>
-      <c r="BH2" s="108"/>
-      <c r="BI2" s="108"/>
-      <c r="BJ2" s="108"/>
-      <c r="BK2" s="108"/>
-      <c r="BL2" s="109"/>
-      <c r="BM2" s="107">
+      <c r="BG2" s="92"/>
+      <c r="BH2" s="92"/>
+      <c r="BI2" s="92"/>
+      <c r="BJ2" s="92"/>
+      <c r="BK2" s="92"/>
+      <c r="BL2" s="93"/>
+      <c r="BM2" s="91">
         <f t="shared" ref="BM2" ca="1" si="7">BM3</f>
         <v>43241</v>
       </c>
-      <c r="BN2" s="108"/>
-      <c r="BO2" s="108"/>
-      <c r="BP2" s="108"/>
-      <c r="BQ2" s="108"/>
-      <c r="BR2" s="108"/>
-      <c r="BS2" s="109"/>
-      <c r="BT2" s="107">
+      <c r="BN2" s="92"/>
+      <c r="BO2" s="92"/>
+      <c r="BP2" s="92"/>
+      <c r="BQ2" s="92"/>
+      <c r="BR2" s="92"/>
+      <c r="BS2" s="93"/>
+      <c r="BT2" s="91">
         <f t="shared" ref="BT2" ca="1" si="8">BT3</f>
         <v>43248</v>
       </c>
-      <c r="BU2" s="108"/>
-      <c r="BV2" s="108"/>
-      <c r="BW2" s="108"/>
-      <c r="BX2" s="108"/>
-      <c r="BY2" s="108"/>
-      <c r="BZ2" s="109"/>
+      <c r="BU2" s="92"/>
+      <c r="BV2" s="92"/>
+      <c r="BW2" s="92"/>
+      <c r="BX2" s="92"/>
+      <c r="BY2" s="92"/>
+      <c r="BZ2" s="93"/>
       <c r="CA2" s="8"/>
     </row>
     <row r="3" spans="1:79" ht="16" thickBot="1">
@@ -1861,10 +1797,10 @@
     </row>
     <row r="4" spans="1:79" ht="30" customHeight="1" thickTop="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="90"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="58" t="s">
         <v>3</v>
       </c>
@@ -2165,8 +2101,8 @@
     </row>
     <row r="5" spans="1:79" ht="16" thickBot="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="35"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -2246,10 +2182,10 @@
     </row>
     <row r="6" spans="1:79" ht="17" thickTop="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="36">
         <v>0.9</v>
       </c>
@@ -2770,12 +2706,12 @@
     </row>
     <row r="12" spans="1:79" ht="17" thickTop="1" thickBot="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="40"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="101" t="str">
+      <c r="G12" s="85" t="str">
         <f>Parameter!F12</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -3274,12 +3210,12 @@
     </row>
     <row r="18" spans="1:79" ht="17" thickTop="1" thickBot="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="43"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="102" t="str">
+      <c r="G18" s="86" t="str">
         <f>Parameter!F18</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -3363,7 +3299,7 @@
       <c r="D19" s="44"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="103" t="str">
+      <c r="G19" s="87" t="str">
         <f>Parameter!F19</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -3447,7 +3383,7 @@
       <c r="D20" s="44"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
-      <c r="G20" s="103" t="str">
+      <c r="G20" s="87" t="str">
         <f>Parameter!F20</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -3531,7 +3467,7 @@
       <c r="D21" s="44"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="103" t="str">
+      <c r="G21" s="87" t="str">
         <f>Parameter!F21</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -3615,7 +3551,7 @@
       <c r="D22" s="44"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="103" t="str">
+      <c r="G22" s="87" t="str">
         <f>Parameter!F22</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -3699,7 +3635,7 @@
       <c r="D23" s="44"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="103" t="str">
+      <c r="G23" s="87" t="str">
         <f>Parameter!F23</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -3778,12 +3714,12 @@
     </row>
     <row r="24" spans="1:79" ht="17" thickTop="1" thickBot="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="45"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
-      <c r="G24" s="104" t="str">
+      <c r="G24" s="88" t="str">
         <f>Parameter!F24</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -4282,12 +4218,12 @@
     </row>
     <row r="30" spans="1:79" ht="17" thickTop="1" thickBot="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="95"/>
       <c r="D30" s="48"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="105" t="str">
+      <c r="G30" s="89" t="str">
         <f>Parameter!F30</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -4371,7 +4307,7 @@
       <c r="D31" s="49"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="106" t="str">
+      <c r="G31" s="90" t="str">
         <f>Parameter!F31</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -4455,7 +4391,7 @@
       <c r="D32" s="49"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="106" t="str">
+      <c r="G32" s="90" t="str">
         <f>Parameter!F32</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -4539,7 +4475,7 @@
       <c r="D33" s="49"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="106" t="str">
+      <c r="G33" s="90" t="str">
         <f>Parameter!F33</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -4623,7 +4559,7 @@
       <c r="D34" s="49"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="106" t="str">
+      <c r="G34" s="90" t="str">
         <f>Parameter!F34</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -4707,7 +4643,7 @@
       <c r="D35" s="49"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="106" t="str">
+      <c r="G35" s="90" t="str">
         <f>Parameter!F35</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -4786,8 +4722,8 @@
     </row>
     <row r="36" spans="1:79" ht="17" thickTop="1" thickBot="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="88"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="50"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
@@ -5401,17 +5337,17 @@
     <mergeCell ref="BT2:BZ2"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:CA41">
-    <cfRule type="expression" dxfId="5" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="238" stopIfTrue="1">
       <formula>AND(P_end&gt;=I$3,P_start&lt;J$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BZ41">
-    <cfRule type="expression" dxfId="4" priority="237">
+    <cfRule type="expression" dxfId="1" priority="237">
       <formula>AND(P_start&lt;=I$3,ROUNDDOWN((P_end-P_start+1)*P_p,0)+P_start-1&gt;=I$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:BZ41">
-    <cfRule type="expression" dxfId="3" priority="234">
+    <cfRule type="expression" dxfId="0" priority="234">
       <formula>AND(Today&gt;=J$3,Today&lt;K$3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8635,7 +8571,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43218</v>
       </c>
     </row>
     <row r="6" spans="1:6">
